--- a/OfficeMacroControl/CodeGen/Mitigations-All.xlsx
+++ b/OfficeMacroControl/CodeGen/Mitigations-All.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AppControl\Prevent-Endpoint-Tools\OfficeMacroControl\CodeGen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABBCE2-F450-437A-98CF-22DE06B9F998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D944AB89-FE51-4D8D-864F-6F368011F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4890" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{C9C958A1-5228-4DFD-B0CF-114EF6E0C8CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C9C958A1-5228-4DFD-B0CF-114EF6E0C8CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Analyzer" sheetId="1" r:id="rId1"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="207">
   <si>
     <t>ASR-Audit</t>
   </si>
@@ -769,9 +764,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -809,7 +804,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -915,7 +910,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1057,7 +1052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,53 +1067,53 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="50.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="50.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="33.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.88671875" style="1"/>
+    <col min="41" max="41" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="29.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -1386,7 +1381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>156</v>
       </c>
@@ -1520,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -1788,7 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -1922,7 +1917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>156</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -2190,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>156</v>
       </c>
@@ -2324,7 +2319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>157</v>
       </c>
@@ -2458,7 +2453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -2592,7 +2587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>157</v>
       </c>
@@ -2726,7 +2721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>157</v>
       </c>
@@ -2860,7 +2855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>157</v>
       </c>
@@ -2994,7 +2989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>157</v>
       </c>
@@ -3128,7 +3123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>157</v>
       </c>
@@ -3262,7 +3257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>157</v>
       </c>
@@ -3396,7 +3391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>157</v>
       </c>
@@ -3530,7 +3525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>157</v>
       </c>
@@ -3664,7 +3659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>157</v>
       </c>
@@ -3798,7 +3793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>157</v>
       </c>
@@ -3932,7 +3927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>157</v>
       </c>
@@ -4066,7 +4061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>157</v>
       </c>
@@ -4200,7 +4195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>157</v>
       </c>
@@ -4334,7 +4329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>157</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
@@ -4602,7 +4597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>157</v>
       </c>
@@ -4736,7 +4731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>157</v>
       </c>
@@ -4870,7 +4865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>157</v>
       </c>
@@ -5004,7 +4999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>157</v>
       </c>
@@ -5138,7 +5133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>157</v>
       </c>
@@ -5272,7 +5267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>157</v>
       </c>
@@ -5406,7 +5401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>157</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>157</v>
       </c>
@@ -5674,7 +5669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>157</v>
       </c>
@@ -5808,7 +5803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>157</v>
       </c>
@@ -5942,7 +5937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>157</v>
       </c>
@@ -6076,7 +6071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>157</v>
       </c>
@@ -6210,7 +6205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>157</v>
       </c>
@@ -6344,7 +6339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>157</v>
       </c>
@@ -6478,7 +6473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -6612,7 +6607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>157</v>
       </c>
@@ -6746,7 +6741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>157</v>
       </c>
@@ -6880,7 +6875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>157</v>
       </c>
@@ -7014,7 +7009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>157</v>
       </c>
@@ -7148,7 +7143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>157</v>
       </c>
@@ -7282,7 +7277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
@@ -7416,7 +7411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>157</v>
       </c>
@@ -7550,7 +7545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>157</v>
       </c>
@@ -7684,7 +7679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -7818,7 +7813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>157</v>
       </c>
@@ -7952,7 +7947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>157</v>
       </c>
@@ -8086,7 +8081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>157</v>
       </c>
@@ -8220,7 +8215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>157</v>
       </c>
@@ -8354,7 +8349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>157</v>
       </c>
@@ -8488,7 +8483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>157</v>
       </c>
@@ -8622,7 +8617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>157</v>
       </c>
@@ -8756,7 +8751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>157</v>
       </c>
@@ -8890,7 +8885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>157</v>
       </c>
@@ -9024,7 +9019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>157</v>
       </c>
@@ -9158,7 +9153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>157</v>
       </c>
@@ -9292,7 +9287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>157</v>
       </c>
@@ -9426,7 +9421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>157</v>
       </c>
@@ -9560,7 +9555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>157</v>
       </c>
@@ -9694,7 +9689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>157</v>
       </c>
@@ -9828,7 +9823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>157</v>
       </c>
@@ -9962,7 +9957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>157</v>
       </c>
@@ -10096,7 +10091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>157</v>
       </c>
@@ -10230,7 +10225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>157</v>
       </c>
@@ -10364,7 +10359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>157</v>
       </c>
@@ -10498,7 +10493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>157</v>
       </c>
@@ -10632,7 +10627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>157</v>
       </c>
@@ -10766,7 +10761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>157</v>
       </c>
@@ -10900,7 +10895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>157</v>
       </c>
@@ -11034,7 +11029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>157</v>
       </c>
@@ -11168,7 +11163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>157</v>
       </c>
@@ -11302,7 +11297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>157</v>
       </c>
@@ -11436,7 +11431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>157</v>
       </c>
@@ -11570,7 +11565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>157</v>
       </c>
@@ -11704,7 +11699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>157</v>
       </c>
@@ -11838,7 +11833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>157</v>
       </c>

--- a/OfficeMacroControl/CodeGen/Mitigations-All.xlsx
+++ b/OfficeMacroControl/CodeGen/Mitigations-All.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D944AB89-FE51-4D8D-864F-6F368011F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AaronLockerWork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BD91A-62F7-450C-A1B4-223033B28FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C9C958A1-5228-4DFD-B0CF-114EF6E0C8CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{450D5A40-8661-4F67-BFC8-80334B9645C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Analyzer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Policy Analyzer'!$A$1:$AR$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Policy Analyzer'!$A$1:$AR$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="205">
   <si>
     <t>ASR-Audit</t>
   </si>
@@ -61,7 +68,7 @@
     <t>Microsoft Access 2016\Application Settings\Security\Trust Center\</t>
   </si>
   <si>
-    <t>Block macros from running in Office files from the Internet</t>
+    <t>Block macros from running in Office files from the internet</t>
   </si>
   <si>
     <t>software\policies\microsoft\office\16.0\access\security</t>
@@ -244,24 +251,24 @@
     <t>software\policies\microsoft\office\16.0\excel\security\trusted locations</t>
   </si>
   <si>
+    <t>Microsoft Project 2016\Project Options\Security\Trust Center\</t>
+  </si>
+  <si>
+    <t>software\policies\microsoft\office\16.0\ms project\security</t>
+  </si>
+  <si>
     <t>Microsoft Project 2016\Project Options\Security\</t>
   </si>
   <si>
     <t>Previous-version file formats</t>
   </si>
   <si>
-    <t>software\policies\microsoft\office\16.0\ms project\security</t>
-  </si>
-  <si>
     <t>legacyfiles</t>
   </si>
   <si>
     <t>Do not open or save</t>
   </si>
   <si>
-    <t>Microsoft Project 2016\Project Options\Security\Trust Center\</t>
-  </si>
-  <si>
     <t>software\policies\microsoft\office\16.0\ms project\security\trusted locations</t>
   </si>
   <si>
@@ -388,70 +395,121 @@
     <t>vbaoff</t>
   </si>
   <si>
+    <t>Software\Policies\Microsoft\Windows Defender\Real-Time Protection</t>
+  </si>
+  <si>
+    <t>DisableRealtimeMonitoring</t>
+  </si>
+  <si>
+    <t>Software\Policies\Microsoft\Windows Defender\Windows Defender Exploit Guard\ASR</t>
+  </si>
+  <si>
+    <t>ExploitGuard_ASR_Rules</t>
+  </si>
+  <si>
+    <t>Software\Policies\Microsoft\Windows Defender\Windows Defender Exploit Guard\ASR\Rules</t>
+  </si>
+  <si>
+    <t>26190899-1602-49e8-8b27-eb1d0a1ce869</t>
+  </si>
+  <si>
+    <t>REG_SZ</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3b576869-a4ec-4529-8536-b80a7769e899</t>
+  </si>
+  <si>
+    <t>75668c1f-73b5-4cf0-bb93-3ecf5cb7cc84</t>
+  </si>
+  <si>
+    <t>92E97FA1-2EDF-4476-BDD6-9DD0B4DDDC7B</t>
+  </si>
+  <si>
+    <t>d4f940ab-401b-4efc-aadc-ad5f3c50688a</t>
+  </si>
+  <si>
+    <t>Windows Components\Microsoft Defender Antivirus\Microsoft Defender Exploit Guard\Attack Surface Reduction\</t>
+  </si>
+  <si>
+    <t>Configure Attack Surface Reduction rules</t>
+  </si>
+  <si>
+    <t>ASR Rule: Block Office communication application from creating child processes</t>
+  </si>
+  <si>
+    <t>ASR Rule: Block Office applications from creating executable content</t>
+  </si>
+  <si>
+    <t>ASR Rule: Block Office applications from injecting code into other processes</t>
+  </si>
+  <si>
+    <t>ASR Rule: Block Win32 API calls from Office macro</t>
+  </si>
+  <si>
+    <t>ASR Rule: Block all Office applications from creating child processes</t>
+  </si>
+  <si>
     <t>Windows Components\Microsoft Defender Antivirus\Real-time Protection\</t>
   </si>
   <si>
     <t>Turn off real-time protection</t>
   </si>
   <si>
-    <t>Software\Policies\Microsoft\Windows Defender\Real-Time Protection</t>
-  </si>
-  <si>
-    <t>DisableRealtimeMonitoring</t>
+    <t>IsMachine</t>
+  </si>
+  <si>
+    <t>GpPath</t>
+  </si>
+  <si>
+    <t>GpName</t>
+  </si>
+  <si>
+    <t>RegKey</t>
+  </si>
+  <si>
+    <t>RegName</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Warn</t>
   </si>
   <si>
     <t>Disabled</t>
   </si>
   <si>
-    <t>Windows Components\Microsoft Defender Antivirus\Microsoft Defender Exploit Guard\Attack Surface Reduction\</t>
-  </si>
-  <si>
-    <t>Configure Attack Surface Reduction rules</t>
-  </si>
-  <si>
-    <t>Software\Policies\Microsoft\Windows Defender\Windows Defender Exploit Guard\ASR</t>
-  </si>
-  <si>
-    <t>ExploitGuard_ASR_Rules</t>
-  </si>
-  <si>
-    <t>Software\Policies\Microsoft\Windows Defender\Windows Defender Exploit Guard\ASR\Rules</t>
-  </si>
-  <si>
-    <t>26190899-1602-49e8-8b27-eb1d0a1ce869</t>
-  </si>
-  <si>
-    <t>REG_SZ</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3b576869-a4ec-4529-8536-b80a7769e899</t>
-  </si>
-  <si>
-    <t>75668c1f-73b5-4cf0-bb93-3ecf5cb7cc84</t>
-  </si>
-  <si>
-    <t>92E97FA1-2EDF-4476-BDD6-9DD0B4DDDC7B</t>
-  </si>
-  <si>
-    <t>d4f940ab-401b-4efc-aadc-ad5f3c50688a</t>
-  </si>
-  <si>
-    <t>IsMachine</t>
-  </si>
-  <si>
-    <t>GpPath</t>
-  </si>
-  <si>
-    <t>GpName</t>
-  </si>
-  <si>
-    <t>RegKey</t>
-  </si>
-  <si>
-    <t>RegName</t>
+    <t>BlockMacrosFromRunningInOfficeFilesFromTheInternet||Option</t>
+  </si>
+  <si>
+    <t>BlockMacrosFromRunningInOfficeFilesFromTheInternet||Type</t>
+  </si>
+  <si>
+    <t>DisableAllUnsignedMacros-basic||Option</t>
+  </si>
+  <si>
+    <t>DisableAllUnsignedMacros-basic||Type</t>
+  </si>
+  <si>
+    <t>DisableAllUnsignedMacros-reqTrustedPub||Option</t>
+  </si>
+  <si>
+    <t>DisableAllUnsignedMacros-reqTrustedPub||Type</t>
+  </si>
+  <si>
+    <t>DisableAllUnsignedMacros-strict||Option</t>
+  </si>
+  <si>
+    <t>DisableAllUnsignedMacros-strict||Type</t>
   </si>
   <si>
     <t>ASR-Audit||Option</t>
@@ -478,34 +536,49 @@
     <t>ASR-Warn||Type</t>
   </si>
   <si>
-    <t>BlockMacrosFromRunningInOfficeFilesFromTheInternet||Option</t>
-  </si>
-  <si>
-    <t>BlockMacrosFromRunningInOfficeFilesFromTheInternet||Type</t>
-  </si>
-  <si>
-    <t>DisableAllUnsignedMacros-basic||Option</t>
-  </si>
-  <si>
-    <t>DisableAllUnsignedMacros-basic||Type</t>
-  </si>
-  <si>
-    <t>DisableAllUnsignedMacros-reqTrustedPub||Option</t>
-  </si>
-  <si>
-    <t>DisableAllUnsignedMacros-reqTrustedPub||Type</t>
-  </si>
-  <si>
-    <t>DisableAllUnsignedMacros-strict||Option</t>
-  </si>
-  <si>
-    <t>DisableAllUnsignedMacros-strict||Type</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>DisableUnsignedVbaAddins</t>
+  </si>
+  <si>
+    <t>DisableUnsignedVbaAddins||Option</t>
+  </si>
+  <si>
+    <t>DisableAllTrustedLocations</t>
+  </si>
+  <si>
+    <t>DisableAllTrustedLocations||Option</t>
+  </si>
+  <si>
+    <t>DisableAllTrustedLocations||Type</t>
+  </si>
+  <si>
+    <t>DisableAllVBA</t>
+  </si>
+  <si>
+    <t>DisableAllVBA||Option</t>
+  </si>
+  <si>
+    <t>DisableAllVBA||Type</t>
+  </si>
+  <si>
+    <t>LegacyFileBlock</t>
+  </si>
+  <si>
+    <t>LegacyFileBlock||Option</t>
+  </si>
+  <si>
+    <t>LegacyFileBlock||Type</t>
+  </si>
+  <si>
+    <t>ScanEncryptedMacros</t>
+  </si>
+  <si>
+    <t>ScanEncryptedMacros||Option</t>
+  </si>
+  <si>
+    <t>ScanEncryptedMacros||Type</t>
+  </si>
+  <si>
+    <t>DisableUnsignedVbaAddins||Type</t>
   </si>
   <si>
     <t>dBase III / IV files</t>
@@ -581,78 +654,6 @@
   </si>
   <si>
     <t>Word XP binary documents and templates</t>
-  </si>
-  <si>
-    <t>DisableAllTrustedLocations</t>
-  </si>
-  <si>
-    <t>DisableAllTrustedLocations||Option</t>
-  </si>
-  <si>
-    <t>DisableAllTrustedLocations||Type</t>
-  </si>
-  <si>
-    <t>DisableAllVBA</t>
-  </si>
-  <si>
-    <t>DisableAllVBA||Option</t>
-  </si>
-  <si>
-    <t>DisableAllVBA||Type</t>
-  </si>
-  <si>
-    <t>LegacyFileBlock</t>
-  </si>
-  <si>
-    <t>LegacyFileBlock||Option</t>
-  </si>
-  <si>
-    <t>LegacyFileBlock||Type</t>
-  </si>
-  <si>
-    <t>ScanEncryptedMacros</t>
-  </si>
-  <si>
-    <t>ScanEncryptedMacros||Option</t>
-  </si>
-  <si>
-    <t>ScanEncryptedMacros||Type</t>
-  </si>
-  <si>
-    <t>DisableUnsignedVbaAddins||Option</t>
-  </si>
-  <si>
-    <t>DisableUnsignedVbaAddins||Type</t>
-  </si>
-  <si>
-    <t>DisableUnsignedVbaAddins</t>
-  </si>
-  <si>
-    <t>ASR Rule: Block Office communication application from creating child processes</t>
-  </si>
-  <si>
-    <t>ASR Rule: Block Office applications from creating executable content</t>
-  </si>
-  <si>
-    <t>ASR Rule: Block Office applications from injecting code into other processes</t>
-  </si>
-  <si>
-    <t>ASR Rule: Block Win32 API calls from Office macro</t>
-  </si>
-  <si>
-    <t>ASR Rule: Block all Office applications from creating child processes</t>
-  </si>
-  <si>
-    <t>Audit</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Warn</t>
-  </si>
-  <si>
-    <t>Off</t>
   </si>
 </sst>
 </file>
@@ -663,7 +664,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -671,7 +672,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -723,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -743,9 +744,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,9 +762,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -774,39 +772,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -858,7 +856,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -910,7 +908,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,13 +967,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -984,6 +975,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1048,208 +1046,229 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F6764E-98B1-4B6F-BCAC-555F620D17CC}">
-  <dimension ref="A1:AR81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D49BD7-D2A7-4293-9B97-33DD7FC4DF56}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AR83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="50.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="45.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="45.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="33.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="50.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="42.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>156</v>
+      <c r="A2" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>114</v>
@@ -1382,56 +1401,56 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>156</v>
+      <c r="A3" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>14</v>
+      <c r="P3" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>12</v>
@@ -1516,56 +1535,56 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>156</v>
+      <c r="A4" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>203</v>
+      <c r="G4" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>204</v>
+      <c r="J4" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>206</v>
+      <c r="M4" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>12</v>
@@ -1650,56 +1669,56 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>156</v>
+      <c r="A5" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>203</v>
+      <c r="G5" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>204</v>
+      <c r="J5" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>206</v>
+      <c r="M5" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>12</v>
@@ -1784,56 +1803,56 @@
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>156</v>
+      <c r="A6" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>203</v>
+      <c r="G6" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>204</v>
+      <c r="J6" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>206</v>
+      <c r="M6" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>12</v>
@@ -1918,56 +1937,56 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>156</v>
+      <c r="A7" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>203</v>
+      <c r="G7" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>204</v>
+      <c r="J7" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>206</v>
+      <c r="M7" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>12</v>
@@ -2052,56 +2071,56 @@
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>156</v>
+      <c r="A8" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>204</v>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>206</v>
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>15</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>12</v>
@@ -2186,26 +2205,26 @@
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>156</v>
+      <c r="A9" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>15</v>
@@ -2214,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>15</v>
@@ -2223,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>15</v>
@@ -2232,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>15</v>
@@ -2320,8 +2339,8 @@
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>157</v>
+      <c r="A10" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -2454,8 +2473,8 @@
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>157</v>
+      <c r="A11" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -2588,8 +2607,8 @@
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>157</v>
+      <c r="A12" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
@@ -2722,8 +2741,8 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>157</v>
+      <c r="A13" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -2856,8 +2875,8 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>157</v>
+      <c r="A14" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -2990,8 +3009,8 @@
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>157</v>
+      <c r="A15" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
@@ -3124,8 +3143,8 @@
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>157</v>
+      <c r="A16" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>
@@ -3258,8 +3277,8 @@
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>157</v>
+      <c r="A17" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>33</v>
@@ -3392,8 +3411,8 @@
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>157</v>
+      <c r="A18" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>33</v>
@@ -3526,8 +3545,8 @@
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>157</v>
+      <c r="A19" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -3660,8 +3679,8 @@
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>157</v>
+      <c r="A20" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>33</v>
@@ -3794,8 +3813,8 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>157</v>
+      <c r="A21" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -3928,8 +3947,8 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>157</v>
+      <c r="A22" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
@@ -4062,8 +4081,8 @@
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>157</v>
+      <c r="A23" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>33</v>
@@ -4196,14 +4215,14 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>157</v>
+      <c r="A24" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>49</v>
@@ -4330,14 +4349,14 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>157</v>
+      <c r="A25" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>49</v>
@@ -4464,14 +4483,14 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>157</v>
+      <c r="A26" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>49</v>
@@ -4598,14 +4617,14 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>157</v>
+      <c r="A27" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>49</v>
@@ -4732,14 +4751,14 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>157</v>
+      <c r="A28" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>49</v>
@@ -4866,14 +4885,14 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>157</v>
+      <c r="A29" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>49</v>
@@ -5000,14 +5019,14 @@
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>157</v>
+      <c r="A30" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>49</v>
@@ -5134,14 +5153,14 @@
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>157</v>
+      <c r="A31" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>49</v>
@@ -5268,14 +5287,14 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>157</v>
+      <c r="A32" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>49</v>
@@ -5402,14 +5421,14 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>157</v>
+      <c r="A33" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>49</v>
@@ -5536,14 +5555,14 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>157</v>
+      <c r="A34" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>49</v>
@@ -5670,14 +5689,14 @@
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>157</v>
+      <c r="A35" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>49</v>
@@ -5804,8 +5823,8 @@
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>157</v>
+      <c r="A36" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
@@ -5938,14 +5957,14 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>157</v>
+      <c r="A37" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>49</v>
@@ -6072,8 +6091,8 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>157</v>
+      <c r="A38" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>68</v>
@@ -6206,8 +6225,8 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>157</v>
+      <c r="A39" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>79</v>
@@ -6340,8 +6359,8 @@
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>157</v>
+      <c r="A40" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>77</v>
@@ -6474,8 +6493,8 @@
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>157</v>
+      <c r="A41" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>77</v>
@@ -6608,8 +6627,8 @@
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>157</v>
+      <c r="A42" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>77</v>
@@ -6742,8 +6761,8 @@
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>157</v>
+      <c r="A43" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>77</v>
@@ -6876,8 +6895,8 @@
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>157</v>
+      <c r="A44" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>77</v>
@@ -7010,8 +7029,8 @@
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>157</v>
+      <c r="A45" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>77</v>
@@ -7144,8 +7163,8 @@
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>157</v>
+      <c r="A46" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>77</v>
@@ -7278,14 +7297,14 @@
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>157</v>
+      <c r="A47" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>83</v>
@@ -7412,8 +7431,8 @@
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>157</v>
+      <c r="A48" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -7546,8 +7565,8 @@
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>157</v>
+      <c r="A49" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>85</v>
@@ -7680,20 +7699,20 @@
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>157</v>
+      <c r="A50" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
@@ -7798,7 +7817,7 @@
         <v>18</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO50" s="4" t="s">
         <v>15</v>
@@ -7814,20 +7833,20 @@
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>157</v>
+      <c r="A51" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>12</v>
@@ -7865,14 +7884,14 @@
       <c r="Q51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>12</v>
+      <c r="R51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>12</v>
@@ -7910,14 +7929,14 @@
       <c r="AF51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH51" s="4" t="s">
-        <v>14</v>
+      <c r="AG51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH51" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ51" s="5" t="s">
         <v>12</v>
@@ -7948,20 +7967,20 @@
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>157</v>
+      <c r="A52" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>12</v>
@@ -8008,32 +8027,32 @@
       <c r="T52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V52" s="4" t="s">
-        <v>28</v>
+      <c r="U52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y52" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB52" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB52" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD52" s="5" t="s">
         <v>12</v>
@@ -8044,14 +8063,14 @@
       <c r="AF52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH52" s="5" t="s">
-        <v>12</v>
+      <c r="AG52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH52" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ52" s="5" t="s">
         <v>12</v>
@@ -8082,17 +8101,17 @@
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>157</v>
+      <c r="A53" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>26</v>
@@ -8216,20 +8235,20 @@
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>157</v>
+      <c r="A54" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>12</v>
@@ -8267,41 +8286,41 @@
       <c r="Q54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S54" s="5" t="s">
-        <v>12</v>
+      <c r="R54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V54" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y54" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB54" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD54" s="5" t="s">
         <v>12</v>
@@ -8350,20 +8369,20 @@
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>157</v>
+      <c r="A55" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>12</v>
@@ -8410,29 +8429,29 @@
       <c r="T55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U55" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V55" s="6" t="s">
-        <v>19</v>
+      <c r="U55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X55" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y55" s="6" t="s">
-        <v>19</v>
+      <c r="X55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Z55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>20</v>
+      <c r="AA55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB55" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="AC55" s="4" t="s">
         <v>15</v>
@@ -8484,20 +8503,20 @@
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>157</v>
+      <c r="A56" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>12</v>
@@ -8554,10 +8573,10 @@
         <v>15</v>
       </c>
       <c r="X56" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y56" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z56" s="4" t="s">
         <v>15</v>
@@ -8618,20 +8637,20 @@
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>157</v>
+      <c r="A57" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>12</v>
@@ -8669,41 +8688,41 @@
       <c r="Q57" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="R57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB57" s="5" t="s">
-        <v>12</v>
+      <c r="AB57" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD57" s="5" t="s">
         <v>12</v>
@@ -8752,20 +8771,20 @@
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>157</v>
+      <c r="A58" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>12</v>
@@ -8812,32 +8831,32 @@
       <c r="T58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>12</v>
+      <c r="U58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="W58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y58" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="X58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y58" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB58" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AA58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD58" s="5" t="s">
         <v>12</v>
@@ -8848,14 +8867,14 @@
       <c r="AF58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH58" s="4" t="s">
-        <v>14</v>
+      <c r="AG58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH58" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AI58" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ58" s="5" t="s">
         <v>12</v>
@@ -8886,20 +8905,20 @@
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>157</v>
+      <c r="A59" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>12</v>
@@ -8937,41 +8956,41 @@
       <c r="Q59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>12</v>
+      <c r="R59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V59" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y59" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="X59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y59" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB59" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="AA59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB59" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD59" s="5" t="s">
         <v>12</v>
@@ -9020,20 +9039,20 @@
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>157</v>
+      <c r="A60" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>12</v>
@@ -9080,50 +9099,50 @@
       <c r="T60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V60" s="6" t="s">
-        <v>19</v>
+      <c r="U60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y60" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y60" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AB60" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH60" s="5" t="s">
-        <v>12</v>
+      <c r="AH60" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="AI60" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ60" s="5" t="s">
         <v>12</v>
@@ -9154,20 +9173,20 @@
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>157</v>
+      <c r="A61" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>12</v>
@@ -9214,29 +9233,29 @@
       <c r="T61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V61" s="6" t="s">
-        <v>19</v>
+      <c r="U61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="W61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y61" s="6" t="s">
-        <v>19</v>
+      <c r="X61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Z61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB61" s="6" t="s">
-        <v>20</v>
+      <c r="AA61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="AC61" s="4" t="s">
         <v>15</v>
@@ -9288,20 +9307,20 @@
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>157</v>
+      <c r="A62" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>12</v>
@@ -9358,10 +9377,10 @@
         <v>15</v>
       </c>
       <c r="X62" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z62" s="4" t="s">
         <v>15</v>
@@ -9422,20 +9441,20 @@
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>157</v>
+      <c r="A63" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>12</v>
@@ -9482,32 +9501,32 @@
       <c r="T63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V63" s="5" t="s">
-        <v>12</v>
+      <c r="U63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V63" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="W63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y63" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y63" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB63" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="AC63" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD63" s="5" t="s">
         <v>12</v>
@@ -9536,14 +9555,14 @@
       <c r="AL63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN63" s="4" t="s">
-        <v>94</v>
+      <c r="AM63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN63" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AO63" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP63" s="5" t="s">
         <v>12</v>
@@ -9556,20 +9575,20 @@
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>157</v>
+      <c r="A64" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>12</v>
@@ -9616,32 +9635,32 @@
       <c r="T64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V64" s="5" t="s">
-        <v>12</v>
+      <c r="U64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V64" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="W64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y64" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="X64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y64" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Z64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB64" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="AC64" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD64" s="5" t="s">
         <v>12</v>
@@ -9670,14 +9689,14 @@
       <c r="AL64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN64" s="4" t="s">
-        <v>94</v>
+      <c r="AM64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN64" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AO64" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP64" s="5" t="s">
         <v>12</v>
@@ -9690,20 +9709,20 @@
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>157</v>
+      <c r="A65" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>12</v>
@@ -9824,20 +9843,20 @@
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>157</v>
+      <c r="A66" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>12</v>
@@ -9875,14 +9894,14 @@
       <c r="Q66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S66" s="4" t="s">
-        <v>14</v>
+      <c r="R66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U66" s="5" t="s">
         <v>12</v>
@@ -9938,14 +9957,14 @@
       <c r="AL66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN66" s="5" t="s">
-        <v>12</v>
+      <c r="AM66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN66" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="AO66" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP66" s="5" t="s">
         <v>12</v>
@@ -9958,20 +9977,20 @@
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>157</v>
+      <c r="A67" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>12</v>
@@ -10072,40 +10091,40 @@
       <c r="AL67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN67" s="5" t="s">
-        <v>12</v>
+      <c r="AM67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN67" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="AO67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ67" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="AP67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ67" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AR67" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>157</v>
+      <c r="A68" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>12</v>
@@ -10143,41 +10162,41 @@
       <c r="Q68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S68" s="5" t="s">
-        <v>12</v>
+      <c r="R68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y68" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="X68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y68" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB68" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="AA68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB68" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AC68" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD68" s="5" t="s">
         <v>12</v>
@@ -10226,20 +10245,20 @@
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>157</v>
+      <c r="A69" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>12</v>
@@ -10286,94 +10305,94 @@
       <c r="T69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U69" s="6" t="s">
+      <c r="U69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="W69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB69" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ69" s="5" t="s">
-        <v>12</v>
+      <c r="AQ69" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="AR69" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>157</v>
+      <c r="A70" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>12</v>
@@ -10420,29 +10439,29 @@
       <c r="T70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V70" s="6" t="s">
-        <v>19</v>
+      <c r="U70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="W70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y70" s="6" t="s">
-        <v>19</v>
+      <c r="X70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Z70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>20</v>
+      <c r="AA70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="AC70" s="4" t="s">
         <v>15</v>
@@ -10494,20 +10513,20 @@
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>157</v>
+      <c r="A71" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>12</v>
@@ -10564,10 +10583,10 @@
         <v>15</v>
       </c>
       <c r="X71" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y71" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z71" s="4" t="s">
         <v>15</v>
@@ -10628,20 +10647,20 @@
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>157</v>
+      <c r="A72" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>12</v>
@@ -10688,32 +10707,32 @@
       <c r="T72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V72" s="5" t="s">
-        <v>12</v>
+      <c r="U72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V72" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="W72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y72" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="X72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y72" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB72" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="AC72" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD72" s="5" t="s">
         <v>12</v>
@@ -10742,14 +10761,14 @@
       <c r="AL72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN72" s="4" t="s">
-        <v>57</v>
+      <c r="AM72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN72" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AO72" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP72" s="5" t="s">
         <v>12</v>
@@ -10762,20 +10781,20 @@
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>157</v>
+      <c r="A73" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>12</v>
@@ -10822,32 +10841,32 @@
       <c r="T73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V73" s="5" t="s">
-        <v>12</v>
+      <c r="U73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y73" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="X73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y73" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB73" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AA73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="AC73" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD73" s="5" t="s">
         <v>12</v>
@@ -10876,14 +10895,14 @@
       <c r="AL73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN73" s="4" t="s">
-        <v>52</v>
+      <c r="AM73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN73" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="AO73" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP73" s="5" t="s">
         <v>12</v>
@@ -10896,20 +10915,20 @@
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>157</v>
+      <c r="A74" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>12</v>
@@ -11011,10 +11030,10 @@
         <v>12</v>
       </c>
       <c r="AM74" s="4" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="AN74" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AO74" s="4" t="s">
         <v>15</v>
@@ -11030,20 +11049,20 @@
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>157</v>
+      <c r="A75" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>12</v>
@@ -11164,20 +11183,20 @@
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>157</v>
+      <c r="A76" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>12</v>
@@ -11298,20 +11317,20 @@
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>157</v>
+      <c r="A77" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>12</v>
@@ -11432,20 +11451,20 @@
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>157</v>
+      <c r="A78" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>12</v>
@@ -11566,20 +11585,20 @@
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>157</v>
+      <c r="A79" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>12</v>
@@ -11700,20 +11719,20 @@
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>157</v>
+      <c r="A80" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>12</v>
@@ -11834,142 +11853,417 @@
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>157</v>
+      <c r="A81" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR81" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR82" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG81" s="4" t="s">
+      <c r="F83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH81" s="4" t="s">
+      <c r="AH83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AI81" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR81" s="4" t="s">
+      <c r="AI83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR83" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR81" xr:uid="{1C89D9DD-D0EA-4A5D-89EB-5A8817FB00A9}"/>
+  <autoFilter ref="A1:AR83" xr:uid="{34D49BD7-D2A7-4293-9B97-33DD7FC4DF56}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR83">
+      <sortCondition descending="1" ref="A2:A83"/>
+      <sortCondition ref="B2:B83"/>
+      <sortCondition ref="C2:C83"/>
+      <sortCondition ref="D2:D83"/>
+      <sortCondition ref="E2:E83"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>